--- a/設定ファイル/b_udp.xlsx
+++ b/設定ファイル/b_udp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\python\andon\設定ファイル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C03E55-C303-4920-99D0-879695F702AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCC14B-C95A-442E-A5E5-101FCA1BEAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -336,28 +336,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N2IN-パスボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>148A</t>
-  </si>
-  <si>
-    <t>ﾄﾞﾗｲﾎﾞｯｸｽ BOX圧力現在値</t>
-  </si>
-  <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Word</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>String</t>
@@ -401,15 +380,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\1010821\Desktop\python\andon\documents\temp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>172.30.40.15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.60.37.98</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\hluser\Desktop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>ヘッド1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -480,13 +466,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,6 +500,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,7 +824,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -910,8 +915,8 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -964,7 +969,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -975,10 +980,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -996,7 +1001,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1044,38 +1049,24 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>39</v>
+      <c r="A2" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>5400</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>504</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C4"/>
@@ -1239,17 +1230,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1261,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/設定ファイル/b_udp.xlsx
+++ b/設定ファイル/b_udp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BCC14B-C95A-442E-A5E5-101FCA1BEAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9B679-74F7-4955-AAE1-E3ED10DC679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -395,8 +395,36 @@
     <t>Word</t>
   </si>
   <si>
-    <t>ヘッド1</t>
-    <phoneticPr fontId="1"/>
+    <t>1_ヘッド1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1_ヘッド2</t>
+  </si>
+  <si>
+    <t>1_ヘッド3</t>
+  </si>
+  <si>
+    <t>1_ヘッド4</t>
+  </si>
+  <si>
+    <t>1_ヘッド5</t>
+  </si>
+  <si>
+    <t>2_ヘッド1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_ヘッド2</t>
+  </si>
+  <si>
+    <t>2_ヘッド3</t>
+  </si>
+  <si>
+    <t>2_ヘッド4</t>
+  </si>
+  <si>
+    <t>2_ヘッド5</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1029,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1066,31 +1094,103 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3"/>
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>5401</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4"/>
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>5402</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5"/>
+      <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>5403</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6"/>
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>5404</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7"/>
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>5420</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8"/>
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>5421</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9"/>
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>5422</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10"/>
+      <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>5423</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11"/>
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>5424</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C12"/>

--- a/設定ファイル/b_udp.xlsx
+++ b/設定ファイル/b_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9B679-74F7-4955-AAE1-E3ED10DC679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A376E11-E6C0-4726-8FA2-566E1CD4376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1103,6 +1103,12 @@
       <c r="C3">
         <v>5401</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
@@ -1114,6 +1120,12 @@
       <c r="C4">
         <v>5402</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
@@ -1125,6 +1137,12 @@
       <c r="C5">
         <v>5403</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
@@ -1136,6 +1154,12 @@
       <c r="C6">
         <v>5404</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
@@ -1147,6 +1171,12 @@
       <c r="C7">
         <v>5420</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
@@ -1158,6 +1188,12 @@
       <c r="C8">
         <v>5421</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
@@ -1169,6 +1205,12 @@
       <c r="C9">
         <v>5422</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
@@ -1180,6 +1222,12 @@
       <c r="C10">
         <v>5423</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
@@ -1190,6 +1238,12 @@
       </c>
       <c r="C11">
         <v>5424</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">

--- a/設定ファイル/b_udp.xlsx
+++ b/設定ファイル/b_udp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A376E11-E6C0-4726-8FA2-566E1CD4376B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1EEB36-79D6-47B2-8170-916DE116D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
@@ -392,9 +392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Word</t>
-  </si>
-  <si>
     <t>1_ヘッド1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -425,6 +422,10 @@
   </si>
   <si>
     <t>2_ヘッド5</t>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1029,7 +1030,7 @@
   <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1078,7 +1079,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1090,12 +1091,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -1107,12 +1108,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1124,12 +1125,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1141,12 +1142,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -1158,12 +1159,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1175,12 +1176,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1192,12 +1193,12 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -1209,12 +1210,12 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -1226,12 +1227,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -1243,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">

--- a/設定ファイル/b_udp.xlsx
+++ b/設定ファイル/b_udp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\andon\設定ファイル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1EEB36-79D6-47B2-8170-916DE116D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA3A2E-0B2A-4BDC-B224-06F7D33D1D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{743614D3-A406-4384-ACBB-4942A42A471C}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="5" r:id="rId1"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\hluser\Desktop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1_ヘッド1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -425,6 +421,10 @@
   </si>
   <si>
     <t>word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\hluser\Desktop\fukotai\src</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F2EE80-807F-4919-80F9-0D14F36CD1BA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1012,7 +1012,7 @@
         <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6749BE2A-2696-44F4-B268-3EF3DA48496F}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1091,12 +1091,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -1108,12 +1108,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
@@ -1125,12 +1125,12 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -1142,12 +1142,12 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
@@ -1159,12 +1159,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -1176,12 +1176,12 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -1193,12 +1193,12 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -1210,12 +1210,12 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -1227,12 +1227,12 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
